--- a/limpo/orcamentos_limpo.xlsx
+++ b/limpo/orcamentos_limpo.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +463,16 @@
           <t>valor_realizado</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>trimestre</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +492,12 @@
       <c r="E2" t="n">
         <v>15524.52</v>
       </c>
+      <c r="F2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -497,6 +517,12 @@
       <c r="E3" t="n">
         <v>45075.42</v>
       </c>
+      <c r="F3" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +542,12 @@
       <c r="E4" t="n">
         <v>44155.59</v>
       </c>
+      <c r="F4" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -535,6 +567,12 @@
       <c r="E5" t="n">
         <v>59965.36</v>
       </c>
+      <c r="F5" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +592,12 @@
       <c r="E6" t="n">
         <v>15988.45</v>
       </c>
+      <c r="F6" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -573,6 +617,12 @@
       <c r="E7" t="n">
         <v>70007.25999999999</v>
       </c>
+      <c r="F7" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -592,6 +642,12 @@
       <c r="E8" t="n">
         <v>24831.97</v>
       </c>
+      <c r="F8" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -611,6 +667,12 @@
       <c r="E9" t="n">
         <v>190453.57</v>
       </c>
+      <c r="F9" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -630,6 +692,12 @@
       <c r="E10" t="n">
         <v>74191.09</v>
       </c>
+      <c r="F10" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -649,6 +717,12 @@
       <c r="E11" t="n">
         <v>52639.94</v>
       </c>
+      <c r="F11" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -668,6 +742,12 @@
       <c r="E12" t="n">
         <v>36631.54</v>
       </c>
+      <c r="F12" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -687,6 +767,12 @@
       <c r="E13" t="n">
         <v>57310.21</v>
       </c>
+      <c r="F13" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -706,6 +792,12 @@
       <c r="E14" t="n">
         <v>38493.2</v>
       </c>
+      <c r="F14" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -725,6 +817,12 @@
       <c r="E15" t="n">
         <v>54142.85</v>
       </c>
+      <c r="F15" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -744,6 +842,12 @@
       <c r="E16" t="n">
         <v>7177.94</v>
       </c>
+      <c r="F16" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -763,6 +867,12 @@
       <c r="E17" t="n">
         <v>14807.27</v>
       </c>
+      <c r="F17" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -782,6 +892,12 @@
       <c r="E18" t="n">
         <v>22518.62</v>
       </c>
+      <c r="F18" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -801,6 +917,12 @@
       <c r="E19" t="n">
         <v>80783.09</v>
       </c>
+      <c r="F19" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -820,6 +942,12 @@
       <c r="E20" t="n">
         <v>57572.04</v>
       </c>
+      <c r="F20" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -839,6 +967,12 @@
       <c r="E21" t="n">
         <v>107587.09</v>
       </c>
+      <c r="F21" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -858,6 +992,12 @@
       <c r="E22" t="n">
         <v>65930.75999999999</v>
       </c>
+      <c r="F22" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -877,6 +1017,12 @@
       <c r="E23" t="n">
         <v>250588.6</v>
       </c>
+      <c r="F23" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -896,6 +1042,12 @@
       <c r="E24" t="n">
         <v>60835.27</v>
       </c>
+      <c r="F24" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -915,6 +1067,12 @@
       <c r="E25" t="n">
         <v>80835.77</v>
       </c>
+      <c r="F25" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -934,6 +1092,12 @@
       <c r="E26" t="n">
         <v>29802.86</v>
       </c>
+      <c r="F26" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -953,6 +1117,12 @@
       <c r="E27" t="n">
         <v>92338.31</v>
       </c>
+      <c r="F27" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -972,6 +1142,12 @@
       <c r="E28" t="n">
         <v>75672.14</v>
       </c>
+      <c r="F28" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -991,6 +1167,12 @@
       <c r="E29" t="n">
         <v>102243.48</v>
       </c>
+      <c r="F29" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1010,6 +1192,12 @@
       <c r="E30" t="n">
         <v>44511.87</v>
       </c>
+      <c r="F30" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1029,6 +1217,12 @@
       <c r="E31" t="n">
         <v>55064.89</v>
       </c>
+      <c r="F31" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1048,6 +1242,12 @@
       <c r="E32" t="n">
         <v>22454.74</v>
       </c>
+      <c r="F32" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1067,6 +1267,12 @@
       <c r="E33" t="n">
         <v>64802.25</v>
       </c>
+      <c r="F33" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1086,6 +1292,12 @@
       <c r="E34" t="n">
         <v>31160.23</v>
       </c>
+      <c r="F34" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1105,6 +1317,12 @@
       <c r="E35" t="n">
         <v>31235.57</v>
       </c>
+      <c r="F35" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1124,6 +1342,12 @@
       <c r="E36" t="n">
         <v>43995.08</v>
       </c>
+      <c r="F36" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1143,6 +1367,12 @@
       <c r="E37" t="n">
         <v>15641.72</v>
       </c>
+      <c r="F37" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1162,6 +1392,12 @@
       <c r="E38" t="n">
         <v>89722.89999999999</v>
       </c>
+      <c r="F38" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1181,6 +1417,12 @@
       <c r="E39" t="n">
         <v>62430.81</v>
       </c>
+      <c r="F39" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1200,6 +1442,12 @@
       <c r="E40" t="n">
         <v>58195.23</v>
       </c>
+      <c r="F40" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1219,6 +1467,12 @@
       <c r="E41" t="n">
         <v>12655.33</v>
       </c>
+      <c r="F41" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1238,6 +1492,12 @@
       <c r="E42" t="n">
         <v>60727.49</v>
       </c>
+      <c r="F42" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1257,6 +1517,12 @@
       <c r="E43" t="n">
         <v>39331.9</v>
       </c>
+      <c r="F43" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1276,6 +1542,12 @@
       <c r="E44" t="n">
         <v>69753.39999999999</v>
       </c>
+      <c r="F44" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1295,6 +1567,12 @@
       <c r="E45" t="n">
         <v>68464.25999999999</v>
       </c>
+      <c r="F45" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1314,6 +1592,12 @@
       <c r="E46" t="n">
         <v>62033.4</v>
       </c>
+      <c r="F46" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1333,6 +1617,12 @@
       <c r="E47" t="n">
         <v>52162.52</v>
       </c>
+      <c r="F47" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1352,6 +1642,12 @@
       <c r="E48" t="n">
         <v>100659.44</v>
       </c>
+      <c r="F48" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1371,6 +1667,12 @@
       <c r="E49" t="n">
         <v>62490.7</v>
       </c>
+      <c r="F49" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1390,6 +1692,12 @@
       <c r="E50" t="n">
         <v>46004.8</v>
       </c>
+      <c r="F50" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1409,6 +1717,12 @@
       <c r="E51" t="n">
         <v>15295.32</v>
       </c>
+      <c r="F51" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1428,6 +1742,12 @@
       <c r="E52" t="n">
         <v>78253.08</v>
       </c>
+      <c r="F52" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1447,6 +1767,12 @@
       <c r="E53" t="n">
         <v>33847.05</v>
       </c>
+      <c r="F53" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1466,6 +1792,12 @@
       <c r="E54" t="n">
         <v>6843.26</v>
       </c>
+      <c r="F54" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1485,6 +1817,12 @@
       <c r="E55" t="n">
         <v>91167.89999999999</v>
       </c>
+      <c r="F55" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1504,6 +1842,12 @@
       <c r="E56" t="n">
         <v>64487.32</v>
       </c>
+      <c r="F56" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1523,6 +1867,12 @@
       <c r="E57" t="n">
         <v>54640.08</v>
       </c>
+      <c r="F57" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1542,6 +1892,12 @@
       <c r="E58" t="n">
         <v>42794.46</v>
       </c>
+      <c r="F58" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1561,6 +1917,12 @@
       <c r="E59" t="n">
         <v>73833.77</v>
       </c>
+      <c r="F59" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1580,6 +1942,12 @@
       <c r="E60" t="n">
         <v>89446.35000000001</v>
       </c>
+      <c r="F60" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1599,6 +1967,12 @@
       <c r="E61" t="n">
         <v>91357.84</v>
       </c>
+      <c r="F61" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1618,6 +1992,12 @@
       <c r="E62" t="n">
         <v>43657.87</v>
       </c>
+      <c r="F62" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1637,6 +2017,12 @@
       <c r="E63" t="n">
         <v>82462.00999999999</v>
       </c>
+      <c r="F63" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1656,6 +2042,12 @@
       <c r="E64" t="n">
         <v>10644.3</v>
       </c>
+      <c r="F64" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1675,6 +2067,12 @@
       <c r="E65" t="n">
         <v>47489.38</v>
       </c>
+      <c r="F65" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1694,6 +2092,12 @@
       <c r="E66" t="n">
         <v>313922.31</v>
       </c>
+      <c r="F66" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1713,6 +2117,12 @@
       <c r="E67" t="n">
         <v>69560.64</v>
       </c>
+      <c r="F67" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1732,6 +2142,12 @@
       <c r="E68" t="n">
         <v>32859.86</v>
       </c>
+      <c r="F68" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1751,6 +2167,12 @@
       <c r="E69" t="n">
         <v>18968.65</v>
       </c>
+      <c r="F69" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1770,6 +2192,12 @@
       <c r="E70" t="n">
         <v>15485.26</v>
       </c>
+      <c r="F70" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1789,6 +2217,12 @@
       <c r="E71" t="n">
         <v>70122.27</v>
       </c>
+      <c r="F71" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1808,6 +2242,12 @@
       <c r="E72" t="n">
         <v>52224.21</v>
       </c>
+      <c r="F72" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1827,6 +2267,12 @@
       <c r="E73" t="n">
         <v>43392.03</v>
       </c>
+      <c r="F73" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1846,6 +2292,12 @@
       <c r="E74" t="n">
         <v>45667.02</v>
       </c>
+      <c r="F74" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1865,6 +2317,12 @@
       <c r="E75" t="n">
         <v>67783.19</v>
       </c>
+      <c r="F75" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1884,6 +2342,12 @@
       <c r="E76" t="n">
         <v>69693.97</v>
       </c>
+      <c r="F76" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1903,6 +2367,12 @@
       <c r="E77" t="n">
         <v>65781.61</v>
       </c>
+      <c r="F77" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1922,6 +2392,12 @@
       <c r="E78" t="n">
         <v>25863.61</v>
       </c>
+      <c r="F78" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1941,6 +2417,12 @@
       <c r="E79" t="n">
         <v>72580.08</v>
       </c>
+      <c r="F79" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1960,6 +2442,12 @@
       <c r="E80" t="n">
         <v>33213.97</v>
       </c>
+      <c r="F80" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1979,6 +2467,12 @@
       <c r="E81" t="n">
         <v>56940.13</v>
       </c>
+      <c r="F81" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1998,6 +2492,12 @@
       <c r="E82" t="n">
         <v>54243.74</v>
       </c>
+      <c r="F82" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2017,6 +2517,12 @@
       <c r="E83" t="n">
         <v>63091.22</v>
       </c>
+      <c r="F83" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2036,6 +2542,12 @@
       <c r="E84" t="n">
         <v>31420.39</v>
       </c>
+      <c r="F84" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2055,6 +2567,12 @@
       <c r="E85" t="n">
         <v>104130.21</v>
       </c>
+      <c r="F85" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2074,6 +2592,12 @@
       <c r="E86" t="n">
         <v>68597.09</v>
       </c>
+      <c r="F86" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2093,6 +2617,12 @@
       <c r="E87" t="n">
         <v>14153.24</v>
       </c>
+      <c r="F87" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2112,6 +2642,12 @@
       <c r="E88" t="n">
         <v>61765.54</v>
       </c>
+      <c r="F88" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2131,6 +2667,12 @@
       <c r="E89" t="n">
         <v>75961.67</v>
       </c>
+      <c r="F89" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2150,6 +2692,12 @@
       <c r="E90" t="n">
         <v>118223.25</v>
       </c>
+      <c r="F90" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2169,6 +2717,12 @@
       <c r="E91" t="n">
         <v>79148.08</v>
       </c>
+      <c r="F91" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2188,6 +2742,12 @@
       <c r="E92" t="n">
         <v>40868.38</v>
       </c>
+      <c r="F92" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="G92" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2207,6 +2767,12 @@
       <c r="E93" t="n">
         <v>86438.99000000001</v>
       </c>
+      <c r="F93" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="G93" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2226,6 +2792,12 @@
       <c r="E94" t="n">
         <v>33054.41</v>
       </c>
+      <c r="F94" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="G94" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2245,6 +2817,12 @@
       <c r="E95" t="n">
         <v>79152.83</v>
       </c>
+      <c r="F95" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="G95" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2264,6 +2842,12 @@
       <c r="E96" t="n">
         <v>91744.05</v>
       </c>
+      <c r="F96" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2283,6 +2867,12 @@
       <c r="E97" t="n">
         <v>81371.36</v>
       </c>
+      <c r="F97" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="G97" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2302,6 +2892,12 @@
       <c r="E98" t="n">
         <v>6243.23</v>
       </c>
+      <c r="F98" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2321,6 +2917,12 @@
       <c r="E99" t="n">
         <v>35370.84</v>
       </c>
+      <c r="F99" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2340,6 +2942,12 @@
       <c r="E100" t="n">
         <v>48919.89</v>
       </c>
+      <c r="F100" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2359,6 +2967,12 @@
       <c r="E101" t="n">
         <v>38720.18</v>
       </c>
+      <c r="F101" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2378,6 +2992,12 @@
       <c r="E102" t="n">
         <v>11982.39</v>
       </c>
+      <c r="F102" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2397,6 +3017,12 @@
       <c r="E103" t="n">
         <v>92918.12</v>
       </c>
+      <c r="F103" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2416,6 +3042,12 @@
       <c r="E104" t="n">
         <v>76111.14999999999</v>
       </c>
+      <c r="F104" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="G104" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2435,6 +3067,12 @@
       <c r="E105" t="n">
         <v>88679.42999999999</v>
       </c>
+      <c r="F105" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="G105" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2454,6 +3092,12 @@
       <c r="E106" t="n">
         <v>33435.05</v>
       </c>
+      <c r="F106" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="G106" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2473,6 +3117,12 @@
       <c r="E107" t="n">
         <v>70867.72</v>
       </c>
+      <c r="F107" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="G107" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2492,6 +3142,12 @@
       <c r="E108" t="n">
         <v>51053.38</v>
       </c>
+      <c r="F108" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2511,6 +3167,12 @@
       <c r="E109" t="n">
         <v>22170.43</v>
       </c>
+      <c r="F109" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2530,6 +3192,12 @@
       <c r="E110" t="n">
         <v>76641.07000000001</v>
       </c>
+      <c r="F110" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2549,6 +3217,12 @@
       <c r="E111" t="n">
         <v>76971.06</v>
       </c>
+      <c r="F111" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2568,6 +3242,12 @@
       <c r="E112" t="n">
         <v>31529.24</v>
       </c>
+      <c r="F112" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2587,6 +3267,12 @@
       <c r="E113" t="n">
         <v>41566.93</v>
       </c>
+      <c r="F113" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2606,6 +3292,12 @@
       <c r="E114" t="n">
         <v>81075.45</v>
       </c>
+      <c r="F114" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2625,6 +3317,12 @@
       <c r="E115" t="n">
         <v>17731.1</v>
       </c>
+      <c r="F115" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2644,6 +3342,12 @@
       <c r="E116" t="n">
         <v>57251.65</v>
       </c>
+      <c r="F116" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2663,6 +3367,12 @@
       <c r="E117" t="n">
         <v>63496.66</v>
       </c>
+      <c r="F117" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="G117" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2682,6 +3392,12 @@
       <c r="E118" t="n">
         <v>270703.31</v>
       </c>
+      <c r="F118" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="G118" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2701,6 +3417,12 @@
       <c r="E119" t="n">
         <v>43491.56</v>
       </c>
+      <c r="F119" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2720,6 +3442,12 @@
       <c r="E120" t="n">
         <v>92876.92999999999</v>
       </c>
+      <c r="F120" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="G120" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2738,6 +3466,12 @@
       </c>
       <c r="E121" t="n">
         <v>5623.75</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="G121" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
